--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value606.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value606.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6911334978287281</v>
+        <v>1.071786522865295</v>
       </c>
       <c r="B1">
-        <v>0.6488468742113772</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>0.6367608904315177</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>0.7874887310197943</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.168608372717113</v>
+        <v>1.158199071884155</v>
       </c>
     </row>
   </sheetData>
